--- a/data/bti-raw.xlsx
+++ b/data/bti-raw.xlsx
@@ -26077,8 +26077,8 @@
       <c r="B2" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C2" s="5">
-        <v>1.0</v>
+      <c r="C2" s="3">
+        <v>19.0</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -26106,8 +26106,8 @@
       <c r="B3" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C3" s="5">
-        <v>2.0</v>
+      <c r="C3" s="3">
+        <v>20.0</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -26135,8 +26135,8 @@
       <c r="B4" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C4" s="5">
-        <v>3.0</v>
+      <c r="C4" s="3">
+        <v>21.0</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
@@ -26164,8 +26164,8 @@
       <c r="B5" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C5" s="5">
-        <v>4.0</v>
+      <c r="C5" s="3">
+        <v>22.0</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
@@ -26193,8 +26193,8 @@
       <c r="B6" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C6" s="5">
-        <v>5.0</v>
+      <c r="C6" s="3">
+        <v>23.0</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -26222,8 +26222,8 @@
       <c r="B7" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C7" s="5">
-        <v>6.0</v>
+      <c r="C7" s="3">
+        <v>24.0</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
@@ -26251,8 +26251,8 @@
       <c r="B8" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C8" s="5">
-        <v>7.0</v>
+      <c r="C8" s="3">
+        <v>25.0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
@@ -26280,8 +26280,8 @@
       <c r="B9" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C9" s="5">
-        <v>8.0</v>
+      <c r="C9" s="3">
+        <v>26.0</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
@@ -26309,8 +26309,8 @@
       <c r="B10" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C10" s="5">
-        <v>9.0</v>
+      <c r="C10" s="3">
+        <v>27.0</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
@@ -26338,8 +26338,8 @@
       <c r="B11" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C11" s="5">
-        <v>10.0</v>
+      <c r="C11" s="3">
+        <v>28.0</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -26367,8 +26367,8 @@
       <c r="B12" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C12" s="5">
-        <v>11.0</v>
+      <c r="C12" s="3">
+        <v>29.0</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
@@ -26396,8 +26396,8 @@
       <c r="B13" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C13" s="5">
-        <v>12.0</v>
+      <c r="C13" s="3">
+        <v>30.0</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
@@ -26425,8 +26425,8 @@
       <c r="B14" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C14" s="5">
-        <v>13.0</v>
+      <c r="C14" s="3">
+        <v>31.0</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>9</v>
@@ -26454,8 +26454,8 @@
       <c r="B15" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C15" s="5">
-        <v>14.0</v>
+      <c r="C15" s="3">
+        <v>32.0</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>9</v>
@@ -26483,8 +26483,8 @@
       <c r="B16" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C16" s="5">
-        <v>15.0</v>
+      <c r="C16" s="3">
+        <v>33.0</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>9</v>
@@ -26512,8 +26512,8 @@
       <c r="B17" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C17" s="5">
-        <v>16.0</v>
+      <c r="C17" s="3">
+        <v>34.0</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>10</v>
@@ -26541,8 +26541,8 @@
       <c r="B18" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C18" s="5">
-        <v>17.0</v>
+      <c r="C18" s="3">
+        <v>35.0</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
@@ -26570,8 +26570,8 @@
       <c r="B19" s="9">
         <v>0.3819444444444444</v>
       </c>
-      <c r="C19" s="5">
-        <v>18.0</v>
+      <c r="C19" s="3">
+        <v>36.0</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>10</v>
@@ -26599,8 +26599,8 @@
       <c r="B20" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C20" s="5">
-        <v>1.0</v>
+      <c r="C20" s="3">
+        <v>19.0</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>9</v>
@@ -26628,8 +26628,8 @@
       <c r="B21" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C21" s="5">
-        <v>2.0</v>
+      <c r="C21" s="3">
+        <v>20.0</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>10</v>
@@ -26657,8 +26657,8 @@
       <c r="B22" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C22" s="5">
-        <v>3.0</v>
+      <c r="C22" s="3">
+        <v>21.0</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>10</v>
@@ -26686,8 +26686,8 @@
       <c r="B23" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C23" s="5">
-        <v>4.0</v>
+      <c r="C23" s="3">
+        <v>22.0</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>9</v>
@@ -26715,8 +26715,8 @@
       <c r="B24" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C24" s="5">
-        <v>5.0</v>
+      <c r="C24" s="3">
+        <v>23.0</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>9</v>
@@ -26744,8 +26744,8 @@
       <c r="B25" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C25" s="5">
-        <v>6.0</v>
+      <c r="C25" s="3">
+        <v>24.0</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>10</v>
@@ -26773,8 +26773,8 @@
       <c r="B26" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C26" s="5">
-        <v>7.0</v>
+      <c r="C26" s="3">
+        <v>25.0</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>9</v>
@@ -26802,8 +26802,8 @@
       <c r="B27" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C27" s="5">
-        <v>8.0</v>
+      <c r="C27" s="3">
+        <v>26.0</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>9</v>
@@ -26831,8 +26831,8 @@
       <c r="B28" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C28" s="5">
-        <v>9.0</v>
+      <c r="C28" s="3">
+        <v>27.0</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>10</v>
@@ -26860,8 +26860,8 @@
       <c r="B29" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C29" s="5">
-        <v>10.0</v>
+      <c r="C29" s="3">
+        <v>28.0</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>10</v>
@@ -26889,8 +26889,8 @@
       <c r="B30" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C30" s="5">
-        <v>11.0</v>
+      <c r="C30" s="3">
+        <v>29.0</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>9</v>
@@ -26918,8 +26918,8 @@
       <c r="B31" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C31" s="5">
-        <v>12.0</v>
+      <c r="C31" s="3">
+        <v>30.0</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>10</v>
@@ -26947,8 +26947,8 @@
       <c r="B32" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C32" s="5">
-        <v>13.0</v>
+      <c r="C32" s="3">
+        <v>31.0</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>9</v>
@@ -26976,8 +26976,8 @@
       <c r="B33" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C33" s="5">
-        <v>14.0</v>
+      <c r="C33" s="3">
+        <v>32.0</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>9</v>
@@ -27005,8 +27005,8 @@
       <c r="B34" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C34" s="5">
-        <v>15.0</v>
+      <c r="C34" s="3">
+        <v>33.0</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>9</v>
@@ -27034,8 +27034,8 @@
       <c r="B35" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C35" s="5">
-        <v>16.0</v>
+      <c r="C35" s="3">
+        <v>34.0</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>10</v>
@@ -27063,8 +27063,8 @@
       <c r="B36" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C36" s="5">
-        <v>17.0</v>
+      <c r="C36" s="3">
+        <v>35.0</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>10</v>
@@ -27092,8 +27092,8 @@
       <c r="B37" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C37" s="5">
-        <v>18.0</v>
+      <c r="C37" s="3">
+        <v>36.0</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>10</v>
@@ -27121,8 +27121,8 @@
       <c r="B38" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C38" s="5">
-        <v>1.0</v>
+      <c r="C38" s="3">
+        <v>19.0</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>9</v>
@@ -27150,8 +27150,8 @@
       <c r="B39" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C39" s="5">
-        <v>2.0</v>
+      <c r="C39" s="3">
+        <v>20.0</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>10</v>
@@ -27179,8 +27179,8 @@
       <c r="B40" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C40" s="5">
-        <v>3.0</v>
+      <c r="C40" s="3">
+        <v>21.0</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>10</v>
@@ -27208,8 +27208,8 @@
       <c r="B41" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C41" s="5">
-        <v>4.0</v>
+      <c r="C41" s="3">
+        <v>22.0</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>9</v>
@@ -27237,8 +27237,8 @@
       <c r="B42" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C42" s="5">
-        <v>5.0</v>
+      <c r="C42" s="3">
+        <v>23.0</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>9</v>
@@ -27266,8 +27266,8 @@
       <c r="B43" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C43" s="5">
-        <v>6.0</v>
+      <c r="C43" s="3">
+        <v>24.0</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>10</v>
@@ -27295,8 +27295,8 @@
       <c r="B44" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C44" s="5">
-        <v>7.0</v>
+      <c r="C44" s="3">
+        <v>25.0</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>9</v>
@@ -27324,8 +27324,8 @@
       <c r="B45" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C45" s="5">
-        <v>8.0</v>
+      <c r="C45" s="3">
+        <v>26.0</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>9</v>
@@ -27353,8 +27353,8 @@
       <c r="B46" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C46" s="5">
-        <v>9.0</v>
+      <c r="C46" s="3">
+        <v>27.0</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>10</v>
@@ -27382,8 +27382,8 @@
       <c r="B47" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C47" s="5">
-        <v>10.0</v>
+      <c r="C47" s="3">
+        <v>28.0</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>10</v>
@@ -27411,8 +27411,8 @@
       <c r="B48" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C48" s="5">
-        <v>11.0</v>
+      <c r="C48" s="3">
+        <v>29.0</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>9</v>
@@ -27440,8 +27440,8 @@
       <c r="B49" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C49" s="5">
-        <v>12.0</v>
+      <c r="C49" s="3">
+        <v>30.0</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>10</v>
@@ -27469,8 +27469,8 @@
       <c r="B50" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C50" s="5">
-        <v>13.0</v>
+      <c r="C50" s="3">
+        <v>31.0</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>9</v>
@@ -27498,8 +27498,8 @@
       <c r="B51" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C51" s="5">
-        <v>14.0</v>
+      <c r="C51" s="3">
+        <v>32.0</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>9</v>
@@ -27527,8 +27527,8 @@
       <c r="B52" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C52" s="5">
-        <v>15.0</v>
+      <c r="C52" s="3">
+        <v>33.0</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>9</v>
@@ -27556,8 +27556,8 @@
       <c r="B53" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C53" s="5">
-        <v>16.0</v>
+      <c r="C53" s="3">
+        <v>34.0</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>10</v>
@@ -27585,8 +27585,8 @@
       <c r="B54" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C54" s="5">
-        <v>17.0</v>
+      <c r="C54" s="3">
+        <v>35.0</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>10</v>
@@ -27614,8 +27614,8 @@
       <c r="B55" s="8">
         <v>0.4652777777777778</v>
       </c>
-      <c r="C55" s="5">
-        <v>18.0</v>
+      <c r="C55" s="3">
+        <v>36.0</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>10</v>
@@ -27643,8 +27643,8 @@
       <c r="B56" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C56" s="5">
-        <v>1.0</v>
+      <c r="C56" s="3">
+        <v>19.0</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>9</v>
@@ -27672,8 +27672,8 @@
       <c r="B57" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C57" s="5">
-        <v>2.0</v>
+      <c r="C57" s="3">
+        <v>20.0</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>10</v>
@@ -27701,8 +27701,8 @@
       <c r="B58" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C58" s="5">
-        <v>3.0</v>
+      <c r="C58" s="3">
+        <v>21.0</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>10</v>
@@ -27730,8 +27730,8 @@
       <c r="B59" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C59" s="5">
-        <v>4.0</v>
+      <c r="C59" s="3">
+        <v>22.0</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>9</v>
@@ -27759,8 +27759,8 @@
       <c r="B60" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C60" s="5">
-        <v>5.0</v>
+      <c r="C60" s="3">
+        <v>23.0</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>9</v>
@@ -27788,8 +27788,8 @@
       <c r="B61" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C61" s="5">
-        <v>6.0</v>
+      <c r="C61" s="3">
+        <v>24.0</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>10</v>
@@ -27817,8 +27817,8 @@
       <c r="B62" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C62" s="5">
-        <v>7.0</v>
+      <c r="C62" s="3">
+        <v>25.0</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>9</v>
@@ -27846,8 +27846,8 @@
       <c r="B63" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C63" s="5">
-        <v>8.0</v>
+      <c r="C63" s="3">
+        <v>26.0</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>9</v>
@@ -27875,8 +27875,8 @@
       <c r="B64" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C64" s="5">
-        <v>9.0</v>
+      <c r="C64" s="3">
+        <v>27.0</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>10</v>
@@ -27904,8 +27904,8 @@
       <c r="B65" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C65" s="5">
-        <v>10.0</v>
+      <c r="C65" s="3">
+        <v>28.0</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>10</v>
@@ -27933,8 +27933,8 @@
       <c r="B66" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C66" s="5">
-        <v>11.0</v>
+      <c r="C66" s="3">
+        <v>29.0</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>9</v>
@@ -27962,8 +27962,8 @@
       <c r="B67" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C67" s="5">
-        <v>12.0</v>
+      <c r="C67" s="3">
+        <v>30.0</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>10</v>
@@ -27991,8 +27991,8 @@
       <c r="B68" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C68" s="5">
-        <v>13.0</v>
+      <c r="C68" s="3">
+        <v>31.0</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>9</v>
@@ -28020,8 +28020,8 @@
       <c r="B69" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C69" s="5">
-        <v>14.0</v>
+      <c r="C69" s="3">
+        <v>32.0</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>9</v>
@@ -28049,8 +28049,8 @@
       <c r="B70" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C70" s="5">
-        <v>15.0</v>
+      <c r="C70" s="3">
+        <v>33.0</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>9</v>
@@ -28078,8 +28078,8 @@
       <c r="B71" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C71" s="5">
-        <v>16.0</v>
+      <c r="C71" s="3">
+        <v>34.0</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>10</v>
@@ -28107,8 +28107,8 @@
       <c r="B72" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C72" s="5">
-        <v>17.0</v>
+      <c r="C72" s="3">
+        <v>35.0</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>10</v>
@@ -28136,8 +28136,8 @@
       <c r="B73" s="8">
         <v>0.5069444444444444</v>
       </c>
-      <c r="C73" s="5">
-        <v>18.0</v>
+      <c r="C73" s="3">
+        <v>36.0</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>10</v>
@@ -28165,8 +28165,8 @@
       <c r="B74" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C74" s="5">
-        <v>1.0</v>
+      <c r="C74" s="3">
+        <v>19.0</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>9</v>
@@ -28194,8 +28194,8 @@
       <c r="B75" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C75" s="5">
-        <v>2.0</v>
+      <c r="C75" s="3">
+        <v>20.0</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>10</v>
@@ -28223,8 +28223,8 @@
       <c r="B76" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C76" s="5">
-        <v>3.0</v>
+      <c r="C76" s="3">
+        <v>21.0</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>10</v>
@@ -28252,8 +28252,8 @@
       <c r="B77" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C77" s="5">
-        <v>4.0</v>
+      <c r="C77" s="3">
+        <v>22.0</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>9</v>
@@ -28281,8 +28281,8 @@
       <c r="B78" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C78" s="5">
-        <v>5.0</v>
+      <c r="C78" s="3">
+        <v>23.0</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>9</v>
@@ -28310,8 +28310,8 @@
       <c r="B79" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C79" s="5">
-        <v>6.0</v>
+      <c r="C79" s="3">
+        <v>24.0</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>10</v>
@@ -28339,8 +28339,8 @@
       <c r="B80" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C80" s="5">
-        <v>7.0</v>
+      <c r="C80" s="3">
+        <v>25.0</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>9</v>
@@ -28368,8 +28368,8 @@
       <c r="B81" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C81" s="5">
-        <v>8.0</v>
+      <c r="C81" s="3">
+        <v>26.0</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>9</v>
@@ -28397,8 +28397,8 @@
       <c r="B82" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C82" s="5">
-        <v>9.0</v>
+      <c r="C82" s="3">
+        <v>27.0</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>10</v>
@@ -28426,8 +28426,8 @@
       <c r="B83" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C83" s="5">
-        <v>10.0</v>
+      <c r="C83" s="3">
+        <v>28.0</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>10</v>
@@ -28455,8 +28455,8 @@
       <c r="B84" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C84" s="5">
-        <v>11.0</v>
+      <c r="C84" s="3">
+        <v>29.0</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>9</v>
@@ -28484,8 +28484,8 @@
       <c r="B85" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C85" s="5">
-        <v>12.0</v>
+      <c r="C85" s="3">
+        <v>30.0</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>10</v>
@@ -28513,8 +28513,8 @@
       <c r="B86" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C86" s="5">
-        <v>13.0</v>
+      <c r="C86" s="3">
+        <v>31.0</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>9</v>
@@ -28542,8 +28542,8 @@
       <c r="B87" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C87" s="5">
-        <v>14.0</v>
+      <c r="C87" s="3">
+        <v>32.0</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>9</v>
@@ -28571,8 +28571,8 @@
       <c r="B88" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C88" s="5">
-        <v>15.0</v>
+      <c r="C88" s="3">
+        <v>33.0</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>9</v>
@@ -28600,8 +28600,8 @@
       <c r="B89" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C89" s="5">
-        <v>16.0</v>
+      <c r="C89" s="3">
+        <v>34.0</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>10</v>
@@ -28629,8 +28629,8 @@
       <c r="B90" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C90" s="5">
-        <v>17.0</v>
+      <c r="C90" s="3">
+        <v>35.0</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>10</v>
@@ -28658,8 +28658,8 @@
       <c r="B91" s="8">
         <v>0.5486111111111112</v>
       </c>
-      <c r="C91" s="5">
-        <v>18.0</v>
+      <c r="C91" s="3">
+        <v>36.0</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>10</v>
@@ -28687,8 +28687,8 @@
       <c r="B92" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C92" s="5">
-        <v>1.0</v>
+      <c r="C92" s="3">
+        <v>19.0</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>9</v>
@@ -28716,8 +28716,8 @@
       <c r="B93" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C93" s="5">
-        <v>2.0</v>
+      <c r="C93" s="3">
+        <v>20.0</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>10</v>
@@ -28745,8 +28745,8 @@
       <c r="B94" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C94" s="5">
-        <v>3.0</v>
+      <c r="C94" s="3">
+        <v>21.0</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>10</v>
@@ -28774,8 +28774,8 @@
       <c r="B95" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C95" s="5">
-        <v>4.0</v>
+      <c r="C95" s="3">
+        <v>22.0</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>9</v>
@@ -28803,8 +28803,8 @@
       <c r="B96" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C96" s="5">
-        <v>5.0</v>
+      <c r="C96" s="3">
+        <v>23.0</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>9</v>
@@ -28832,8 +28832,8 @@
       <c r="B97" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C97" s="5">
-        <v>6.0</v>
+      <c r="C97" s="3">
+        <v>24.0</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>10</v>
@@ -28861,8 +28861,8 @@
       <c r="B98" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C98" s="5">
-        <v>7.0</v>
+      <c r="C98" s="3">
+        <v>25.0</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>9</v>
@@ -28890,8 +28890,8 @@
       <c r="B99" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C99" s="5">
-        <v>8.0</v>
+      <c r="C99" s="3">
+        <v>26.0</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>9</v>
@@ -28919,8 +28919,8 @@
       <c r="B100" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C100" s="5">
-        <v>9.0</v>
+      <c r="C100" s="3">
+        <v>27.0</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>10</v>
@@ -28948,8 +28948,8 @@
       <c r="B101" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C101" s="5">
-        <v>10.0</v>
+      <c r="C101" s="3">
+        <v>28.0</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>10</v>
@@ -28977,8 +28977,8 @@
       <c r="B102" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C102" s="5">
-        <v>11.0</v>
+      <c r="C102" s="3">
+        <v>29.0</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>9</v>
@@ -29006,8 +29006,8 @@
       <c r="B103" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C103" s="5">
-        <v>12.0</v>
+      <c r="C103" s="3">
+        <v>30.0</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>10</v>
@@ -29035,8 +29035,8 @@
       <c r="B104" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C104" s="5">
-        <v>13.0</v>
+      <c r="C104" s="3">
+        <v>31.0</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>9</v>
@@ -29064,8 +29064,8 @@
       <c r="B105" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C105" s="5">
-        <v>14.0</v>
+      <c r="C105" s="3">
+        <v>32.0</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>9</v>
@@ -29093,8 +29093,8 @@
       <c r="B106" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C106" s="5">
-        <v>15.0</v>
+      <c r="C106" s="3">
+        <v>33.0</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>9</v>
@@ -29122,8 +29122,8 @@
       <c r="B107" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C107" s="5">
-        <v>16.0</v>
+      <c r="C107" s="3">
+        <v>34.0</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>10</v>
@@ -29151,8 +29151,8 @@
       <c r="B108" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C108" s="5">
-        <v>17.0</v>
+      <c r="C108" s="3">
+        <v>35.0</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>10</v>
@@ -29180,8 +29180,8 @@
       <c r="B109" s="8">
         <v>0.5902777777777778</v>
       </c>
-      <c r="C109" s="5">
-        <v>18.0</v>
+      <c r="C109" s="3">
+        <v>36.0</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>10</v>
@@ -29209,8 +29209,8 @@
       <c r="B110" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C110" s="5">
-        <v>1.0</v>
+      <c r="C110" s="3">
+        <v>19.0</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
@@ -29238,8 +29238,8 @@
       <c r="B111" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C111" s="5">
-        <v>2.0</v>
+      <c r="C111" s="3">
+        <v>20.0</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>10</v>
@@ -29267,8 +29267,8 @@
       <c r="B112" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C112" s="5">
-        <v>3.0</v>
+      <c r="C112" s="3">
+        <v>21.0</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>10</v>
@@ -29296,8 +29296,8 @@
       <c r="B113" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C113" s="5">
-        <v>4.0</v>
+      <c r="C113" s="3">
+        <v>22.0</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
@@ -29325,8 +29325,8 @@
       <c r="B114" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C114" s="5">
-        <v>5.0</v>
+      <c r="C114" s="3">
+        <v>23.0</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
@@ -29354,8 +29354,8 @@
       <c r="B115" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C115" s="5">
-        <v>6.0</v>
+      <c r="C115" s="3">
+        <v>24.0</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>10</v>
@@ -29383,8 +29383,8 @@
       <c r="B116" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C116" s="5">
-        <v>7.0</v>
+      <c r="C116" s="3">
+        <v>25.0</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>9</v>
@@ -29412,8 +29412,8 @@
       <c r="B117" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C117" s="5">
-        <v>8.0</v>
+      <c r="C117" s="3">
+        <v>26.0</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>9</v>
@@ -29441,8 +29441,8 @@
       <c r="B118" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C118" s="5">
-        <v>9.0</v>
+      <c r="C118" s="3">
+        <v>27.0</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>10</v>
@@ -29470,8 +29470,8 @@
       <c r="B119" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C119" s="5">
-        <v>10.0</v>
+      <c r="C119" s="3">
+        <v>28.0</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>10</v>
@@ -29499,8 +29499,8 @@
       <c r="B120" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C120" s="5">
-        <v>11.0</v>
+      <c r="C120" s="3">
+        <v>29.0</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>9</v>
@@ -29528,8 +29528,8 @@
       <c r="B121" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C121" s="5">
-        <v>12.0</v>
+      <c r="C121" s="3">
+        <v>30.0</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>10</v>
@@ -29557,8 +29557,8 @@
       <c r="B122" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C122" s="5">
-        <v>13.0</v>
+      <c r="C122" s="3">
+        <v>31.0</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
@@ -29586,8 +29586,8 @@
       <c r="B123" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C123" s="5">
-        <v>14.0</v>
+      <c r="C123" s="3">
+        <v>32.0</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
@@ -29615,8 +29615,8 @@
       <c r="B124" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C124" s="5">
-        <v>15.0</v>
+      <c r="C124" s="3">
+        <v>33.0</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
@@ -29644,8 +29644,8 @@
       <c r="B125" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C125" s="5">
-        <v>16.0</v>
+      <c r="C125" s="3">
+        <v>34.0</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>10</v>
@@ -29673,8 +29673,8 @@
       <c r="B126" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C126" s="5">
-        <v>17.0</v>
+      <c r="C126" s="3">
+        <v>35.0</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>10</v>
@@ -29702,8 +29702,8 @@
       <c r="B127" s="8">
         <v>0.6319444444444444</v>
       </c>
-      <c r="C127" s="5">
-        <v>18.0</v>
+      <c r="C127" s="3">
+        <v>36.0</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>10</v>
@@ -29731,8 +29731,8 @@
       <c r="B128" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C128" s="5">
-        <v>1.0</v>
+      <c r="C128" s="3">
+        <v>19.0</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
@@ -29760,8 +29760,8 @@
       <c r="B129" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C129" s="5">
-        <v>2.0</v>
+      <c r="C129" s="3">
+        <v>20.0</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>10</v>
@@ -29789,8 +29789,8 @@
       <c r="B130" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C130" s="5">
-        <v>3.0</v>
+      <c r="C130" s="3">
+        <v>21.0</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>10</v>
@@ -29818,8 +29818,8 @@
       <c r="B131" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C131" s="5">
-        <v>4.0</v>
+      <c r="C131" s="3">
+        <v>22.0</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
@@ -29847,8 +29847,8 @@
       <c r="B132" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C132" s="5">
-        <v>5.0</v>
+      <c r="C132" s="3">
+        <v>23.0</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
@@ -29876,8 +29876,8 @@
       <c r="B133" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C133" s="5">
-        <v>6.0</v>
+      <c r="C133" s="3">
+        <v>24.0</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>10</v>
@@ -29905,8 +29905,8 @@
       <c r="B134" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C134" s="5">
-        <v>7.0</v>
+      <c r="C134" s="3">
+        <v>25.0</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
@@ -29934,8 +29934,8 @@
       <c r="B135" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C135" s="5">
-        <v>8.0</v>
+      <c r="C135" s="3">
+        <v>26.0</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
@@ -29963,8 +29963,8 @@
       <c r="B136" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C136" s="5">
-        <v>9.0</v>
+      <c r="C136" s="3">
+        <v>27.0</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>10</v>
@@ -29992,8 +29992,8 @@
       <c r="B137" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C137" s="5">
-        <v>10.0</v>
+      <c r="C137" s="3">
+        <v>28.0</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>10</v>
@@ -30021,8 +30021,8 @@
       <c r="B138" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C138" s="5">
-        <v>11.0</v>
+      <c r="C138" s="3">
+        <v>29.0</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
@@ -30050,8 +30050,8 @@
       <c r="B139" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C139" s="5">
-        <v>12.0</v>
+      <c r="C139" s="3">
+        <v>30.0</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>10</v>
@@ -30079,8 +30079,8 @@
       <c r="B140" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C140" s="5">
-        <v>13.0</v>
+      <c r="C140" s="3">
+        <v>31.0</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
@@ -30108,8 +30108,8 @@
       <c r="B141" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C141" s="5">
-        <v>14.0</v>
+      <c r="C141" s="3">
+        <v>32.0</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
@@ -30137,8 +30137,8 @@
       <c r="B142" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C142" s="5">
-        <v>15.0</v>
+      <c r="C142" s="3">
+        <v>33.0</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
@@ -30166,8 +30166,8 @@
       <c r="B143" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C143" s="5">
-        <v>16.0</v>
+      <c r="C143" s="3">
+        <v>34.0</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>10</v>
@@ -30195,8 +30195,8 @@
       <c r="B144" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C144" s="5">
-        <v>17.0</v>
+      <c r="C144" s="3">
+        <v>35.0</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>10</v>
@@ -30224,8 +30224,8 @@
       <c r="B145" s="8">
         <v>0.6736111111111112</v>
       </c>
-      <c r="C145" s="5">
-        <v>18.0</v>
+      <c r="C145" s="3">
+        <v>36.0</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>10</v>
